--- a/biology/Botanique/Chasmanthe/Chasmanthe.xlsx
+++ b/biology/Botanique/Chasmanthe/Chasmanthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasmanthe est un genre de plantes de la famille des Iridaceae originaire d'Afrique du Sud. Dans leur habitat naturel, les fleurs sont pollinisées par les oiseaux nectarivores : souï-manga. 
 Le nom du genre est dérivé du grec Chasme, qui signifie « bouche bée », et anthos, qui signifie fleur.
-Il comprend trois espèces. L'espèce Chasmanthe bicolor est envahissante sur le pourtour méditerranéen[1].
+Il comprend trois espèces. L'espèce Chasmanthe bicolor est envahissante sur le pourtour méditerranéen.
 Ce sont des plantes herbacées atteignant 1,40 m de haut, caduques et bulbeuses. Les fleurs sont hermaphrodites, sessiles et zygomorphes.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 janv. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 janv. 2011) :
 Chasmanthe aethiopica (L.) N.E.Br. (1932)
 Chasmanthe bicolor (Gasp. ex Vis.) N.E.Br. (1932)
 Chasmanthe floribunda (Salisb.) N.E.Br. (1932)
